--- a/wbs일괄.xlsx
+++ b/wbs일괄.xlsx
@@ -24,122 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>project_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>task1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>task2</t>
-  </si>
-  <si>
-    <t>task3</t>
-  </si>
-  <si>
-    <t>task4</t>
-  </si>
-  <si>
-    <t>task5</t>
-  </si>
-  <si>
-    <t>task6</t>
-  </si>
-  <si>
-    <t>task7</t>
-  </si>
-  <si>
-    <t>task8</t>
-  </si>
-  <si>
-    <t>task9</t>
-  </si>
-  <si>
-    <t>task10</t>
-  </si>
-  <si>
-    <t>task11</t>
-  </si>
-  <si>
-    <t>task12</t>
-  </si>
-  <si>
-    <t>task13</t>
-  </si>
-  <si>
-    <t>task14</t>
-  </si>
-  <si>
-    <t>task15</t>
-  </si>
-  <si>
-    <t>task16</t>
-  </si>
-  <si>
-    <t>task17</t>
-  </si>
-  <si>
-    <t>task18</t>
-  </si>
-  <si>
-    <t>task19</t>
-  </si>
-  <si>
-    <t>task20</t>
-  </si>
-  <si>
-    <t>task21</t>
-  </si>
-  <si>
-    <t>task22</t>
-  </si>
-  <si>
-    <t>task23</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강감찬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이순신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베트맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>task_progress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,14 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-03-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-03-04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,6 +54,190 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>task_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코방화벽정책관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 최적화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코 계정 생성 전달</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>토폴로지맵 검토</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>토폴로지맵 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 교육</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 정책분석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 Architecture 컨설팅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(연계) 인사DB 연결</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(연계) SSO 적용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신청시스템) UI검토 리뷰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신청시스템) 결재선 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신청시스템) 메일 시스템 연동개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신청시스템) 신청시스템 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(신청시스템) 기존신청시스템 마이그레이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>토폴로지1차 검토 - 포스코 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오진우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전계성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유재웅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전계성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전계성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정합성검증) 주니퍼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정합성검증) 안랩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정합성검증) 시스코</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8차 패치 (예정)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2025-03-06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,11 +246,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-03-08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-09</t>
+    <t>2025-03-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -192,15 +274,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-03-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-13</t>
+    <t>2025-03-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -208,39 +286,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-03-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-03-17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-03-18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-03-23</t>
+    <t>2025-03-28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -248,103 +298,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-04-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-04-04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-04-05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-04-07</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-04-08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2025-04-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-04-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>(정합성검증) 팔로알토</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +347,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -411,13 +391,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +435,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,14 +726,14 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
@@ -734,479 +744,479 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
